--- a/xlsx/牛排_intext.xlsx
+++ b/xlsx/牛排_intext.xlsx
@@ -29,7 +29,7 @@
     <t>牛肉</t>
   </si>
   <si>
-    <t>政策_政策_美國_牛排</t>
+    <t>政策_政策_美国_牛排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%A4%90</t>
@@ -47,7 +47,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%92%E7%83%A4</t>
   </si>
   <si>
-    <t>燒烤</t>
+    <t>烧烤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E6%B5%B7%E8%AF%9D</t>
@@ -59,19 +59,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%AB%BE%E7%88%BE%E6%96%AF%E8%AA%9E</t>
   </si>
   <si>
-    <t>古諾爾斯語</t>
+    <t>古诺尔斯语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%83%E9%9D%BC%E7%89%9B%E8%82%89</t>
   </si>
   <si>
-    <t>韃靼牛肉</t>
+    <t>鞑靼牛肉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%A1%9E%E4%BF%84%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>埃塞俄比亞</t>
+    <t>埃塞俄比亚</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Chateaubriand_steak</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%AE%A2%E7%89%9B%E6%8E%92</t>
   </si>
   <si>
-    <t>紐約客牛排</t>
+    <t>纽约客牛排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%8B%E7%9C%BC</t>
@@ -191,37 +191,37 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%8C%E5%8A%87</t>
   </si>
   <si>
-    <t>歌劇</t>
+    <t>歌剧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E9%A3%AF%E5%BA%97</t>
   </si>
   <si>
-    <t>帝國飯店</t>
+    <t>帝国饭店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%B3%E5%A3%AB%E5%B7%B4%E5%88%A9%E6%BC%A2%E5%A0%A1%E6%89%92</t>
   </si>
   <si>
-    <t>梳士巴利漢堡扒</t>
+    <t>梳士巴利汉堡扒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%83%E9%9D%BC%E7%89%9B%E6%8E%92</t>
   </si>
   <si>
-    <t>韃靼牛排</t>
+    <t>鞑靼牛排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E8%A3%9D%E7%89%9B%E8%82%89</t>
   </si>
   <si>
-    <t>組裝牛肉</t>
+    <t>组装牛肉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%96%97%E6%98%9F%E5%8F%B7%E5%88%97%E8%BD%A6</t>
@@ -233,25 +233,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%92%E7%89%9B%E8%82%89</t>
   </si>
   <si>
-    <t>燒牛肉</t>
+    <t>烧牛肉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AC%E6%8E%92</t>
   </si>
   <si>
-    <t>豬排</t>
+    <t>猪排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%9E%E6%8E%92</t>
   </si>
   <si>
-    <t>雞排</t>
+    <t>鸡排</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E6%8E%92%E7%AA%81%E8%A5%B2</t>
   </si>
   <si>
-    <t>牛排突襲</t>
+    <t>牛排突袭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%B4%E4%B9%9F%E7%BA%B3%E7%82%B8%E7%89%9B%E6%8E%92</t>
